--- a/resources/import/accounting_sheets.xlsx
+++ b/resources/import/accounting_sheets.xlsx
@@ -1069,142 +1069,23 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1"/>
@@ -2160,23 +2041,6 @@
     <row r="981" ht="14.25" customHeight="1"/>
     <row r="982" ht="14.25" customHeight="1"/>
     <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$C$6:$H$6"/>
   <mergeCells count="1">
